--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK06002_ユーザー登録画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK06002_ユーザー登録画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E22D657-7EC4-4859-9865-E156D9AD0D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF05F34A-D328-4AF3-85C2-8F37C39323EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5100" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5100" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>画面設計書</t>
     <rPh sb="0" eb="2">
@@ -294,7 +294,7 @@
     <t>sei</t>
   </si>
   <si>
-    <t>性</t>
+    <t>姓</t>
   </si>
   <si>
     <t>user</t>
@@ -348,7 +348,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>registerForm</t>
+    <t>KK06002Form</t>
   </si>
   <si>
     <t>引数</t>
@@ -375,19 +375,19 @@
     <t>RegisterForm</t>
   </si>
   <si>
-    <t>1. 登録画面で使用するformオブジェクトを返す。</t>
+    <t>1. ユーザー登録画面で使用するformオブジェクトを返す。</t>
   </si>
   <si>
     <t>registerInput</t>
   </si>
   <si>
-    <t>1. 戻り値（登録画面のパス）を返し、登録画面を表示する。</t>
+    <t>1. 戻り値（ユーザー登録画面のパス）を返し、ユーザー登録画面を表示する。</t>
   </si>
   <si>
     <t>registUser</t>
   </si>
   <si>
-    <t>RegustForm</t>
+    <t>KK06002Form,Model,BindingResult</t>
   </si>
   <si>
     <t>1. 入力された情報の入力チェックを行う。</t>
@@ -439,65 +439,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-2-1. 認証処理メソッドを呼び出し、入力情報の認証処理を行う。</t>
-    <rPh sb="7" eb="9">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>1-2-1. 重複チェックメソッドを呼び出し、社員番号の重複チェック処理を行う。</t>
   </si>
   <si>
-    <t>1-2-1-1. 認証エラーが発生した場合</t>
-    <rPh sb="9" eb="11">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="21">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>1-2-1-1. 社員番号が重複していた場合</t>
   </si>
   <si>
     <t>自画面遷移し、エラーメッセージを表示する。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-2-1-2. 認証エラーが発生していない場合</t>
-    <rPh sb="9" eb="11">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>1-2-1-2. 社員番号が重複していない場合</t>
   </si>
   <si>
     <t>戻り値（ユーザ登録画面のパス）を返し、ユーザ登録画面を表示する。</t>
+  </si>
+  <si>
+    <t>登録完了メッセージも表示させる。</t>
   </si>
   <si>
     <t>getoutFromKK06002</t>
@@ -4466,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12:AK12"/>
+    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6:AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -6003,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -7306,7 +7264,9 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -7418,7 +7378,7 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -7437,7 +7397,7 @@
       </c>
       <c r="T37" s="13"/>
       <c r="U37" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
@@ -7537,7 +7497,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -7709,7 +7669,7 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -7859,7 +7819,7 @@
     <row r="4" spans="1:33">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -7966,7 +7926,7 @@
     <row r="7" spans="1:33">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -8004,13 +7964,13 @@
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8043,7 +8003,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK06002_ユーザー登録画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK06002_ユーザー登録画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF05F34A-D328-4AF3-85C2-8F37C39323EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB18C34B-9F53-4FF6-8983-806B449BA71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5100" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <t>画面設計書</t>
     <rPh sb="0" eb="2">
@@ -458,6 +458,18 @@
     <t>登録完了メッセージも表示させる。</t>
   </si>
   <si>
+    <t>searchUser</t>
+  </si>
+  <si>
+    <t>registeringUser</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>1. 入力したユーザーIDとメールアドレスがBDと重複していないかチェックする。</t>
+  </si>
+  <si>
     <t>getoutFromKK06002</t>
   </si>
   <si>
@@ -465,42 +477,6 @@
   </si>
   <si>
     <t>1. 「戻る」が押下された場合遷移先をメニュー画面(KK05001)へリダイレクトする。</t>
-  </si>
-  <si>
-    <t>認証処理は共通部品を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル論理名：</t>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル物理名：</t>
   </si>
 </sst>
 </file>
@@ -1036,13 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,67 +1024,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,11 +1087,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,21 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,23 +1514,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1575,21 +1551,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1610,21 +1586,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1715,25 +1691,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1754,21 +1730,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1789,25 +1765,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1828,21 +1804,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1966,29 +1942,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="23" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="28" t="s">
+      <c r="R16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="23" t="s">
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2009,29 +1985,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22">
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="28">
         <v>44140</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="22">
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="28">
         <v>44140</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2359,6 +2335,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2366,12 +2348,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2397,104 +2373,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="str">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="59" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="41" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="62" t="str">
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="41" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="63">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="31">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="29" t="str">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="59" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="41" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="62" t="str">
+      <c r="W2" s="29"/>
+      <c r="X2" s="30" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="63">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="31">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="5"/>
@@ -2595,682 +2571,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="51" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="52"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="36"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="53">
+      <c r="B7" s="37">
         <v>1</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40">
         <v>44140</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="42" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="44"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="48"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="44"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="48"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="44"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="48"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="48"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="44"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="48"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="44"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="48"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="44"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="48"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="48"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="44"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="48"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="44"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="48"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="55"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="44"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="48"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="44"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="48"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="44"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="44"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="44"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="40"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="58"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3346,62 +3322,22 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AB12"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3418,22 +3354,62 @@
     <mergeCell ref="I20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3460,104 +3436,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="str">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="59" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="41" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="62" t="str">
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="41" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="63">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="31">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="29" t="str">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="59" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="41" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="62" t="str">
+      <c r="W2" s="29"/>
+      <c r="X2" s="30" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="63">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="31">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="5"/>
@@ -4424,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6:AK6"/>
+    <sheetView topLeftCell="H8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11:AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -4440,103 +4416,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="str">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="59" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="41" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="62" t="str">
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="41" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="63">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="31">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
       <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:47">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="29" t="str">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="59" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="41" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="62" t="str">
+      <c r="W2" s="29"/>
+      <c r="X2" s="30" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="63">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="31">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
       <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47">
@@ -4639,587 +4615,587 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5" s="5"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65" t="s">
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="64" t="s">
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64" t="s">
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64" t="s">
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64" t="s">
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" ht="37.5" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="35">
+      <c r="B6" s="52">
         <v>1</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="68" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="71" t="s">
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71" t="s">
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="72" t="s">
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72" t="s">
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="72"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" ht="86.25" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="35">
+      <c r="B7" s="52">
         <v>2</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="68" t="s">
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="71" t="s">
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71" t="s">
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="72" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72" t="s">
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
       <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="1:47" ht="28.5" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="35">
+      <c r="B8" s="52">
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="68" t="s">
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="71" t="s">
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71" t="s">
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="72" t="s">
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72" t="s">
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
       <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="1:47" ht="32.25" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="52">
         <v>4</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="68" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="71" t="s">
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71" t="s">
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="72" t="s">
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72" t="s">
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
       <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="1:47" ht="32.25" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="35">
+      <c r="B10" s="52">
         <v>5</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="68" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="71" t="s">
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71" t="s">
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="72" t="s">
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72" t="s">
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
       <c r="AU10" s="7"/>
     </row>
     <row r="11" spans="1:47" ht="76.5" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="35">
+      <c r="B11" s="52">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="68" t="s">
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="71" t="s">
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71" t="s">
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="72" t="s">
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72" t="s">
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
       <c r="AU11" s="7"/>
     </row>
     <row r="12" spans="1:47" ht="32.25" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="35">
+      <c r="B12" s="52">
         <v>7</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="68" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="71" t="s">
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71" t="s">
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="72" t="s">
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72" t="s">
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
       <c r="AU12" s="7"/>
     </row>
     <row r="13" spans="1:47" ht="32.25" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="35">
+      <c r="B13" s="52">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="68" t="s">
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="71" t="s">
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71" t="s">
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="72" t="s">
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72" t="s">
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
       <c r="AU13" s="7"/>
     </row>
     <row r="14" spans="1:47" ht="18.75" customHeight="1">
@@ -5861,14 +5837,66 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="AL13:AT13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="AL8:AT8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="AL10:AT10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:X9"/>
     <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="AC11:AK11"/>
     <mergeCell ref="AL11:AT11"/>
@@ -5885,66 +5913,14 @@
     <mergeCell ref="J11:O11"/>
     <mergeCell ref="P11:T11"/>
     <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AL9:AT9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="AL10:AT10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="AL8:AT8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="AL13:AT13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:X13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -5959,10 +5935,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -5975,106 +5951,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="str">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="59" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="41" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="62" t="str">
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="41" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="63">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="31">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
       <c r="AH1" s="18"/>
       <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="29" t="str">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="59" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="41" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="62" t="str">
+      <c r="W2" s="29"/>
+      <c r="X2" s="30" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="63">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="31">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
       <c r="AH2" s="18"/>
       <c r="AI2" s="18"/>
     </row>
@@ -7363,7 +7339,7 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
+      <c r="AE36" s="9"/>
       <c r="AF36" s="6"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="6"/>
@@ -7438,7 +7414,7 @@
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="3" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -7497,7 +7473,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -7571,77 +7547,387 @@
     <row r="42" spans="1:35">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="17"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="4"/>
       <c r="AF42" s="6"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
     </row>
-    <row r="43" spans="1:35">
-      <c r="AH43" s="19"/>
+    <row r="43" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="20"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" s="13"/>
+      <c r="U45" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T46" s="4"/>
+      <c r="U46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+    </row>
+    <row r="50" spans="1:35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="AH51" s="19"/>
+    </row>
+    <row r="52" spans="1:35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7669,7 +7955,7 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -7682,104 +7968,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="29" t="str">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="59" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="41" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="62" t="str">
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="41" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="63">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="31">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="29" t="str">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="59" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="41" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="62" t="str">
+      <c r="W2" s="29"/>
+      <c r="X2" s="30" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="63">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="31">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="5"/>
@@ -7818,9 +8104,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7925,9 +8209,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7963,15 +8245,11 @@
     <row r="8" spans="1:33">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -8002,15 +8280,11 @@
     <row r="9" spans="1:33">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK06002_ユーザー登録画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK06002_ユーザー登録画面.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB18C34B-9F53-4FF6-8983-806B449BA71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5100" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="処理概要" sheetId="5" r:id="rId5"/>
     <sheet name="備考" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
   <si>
     <t>画面設計書</t>
     <rPh sb="0" eb="2">
@@ -275,11 +274,6 @@
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>NotEmpty
-Size(min=1, max=50, message=)
-Email</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -287,10 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NotEmpty
-Size(min=8, max=20, message=)</t>
-  </si>
-  <si>
     <t>sei</t>
   </si>
   <si>
@@ -300,10 +290,6 @@
     <t>user</t>
   </si>
   <si>
-    <t>NotEmpty
-Size(min=1, max=20, message=)</t>
-  </si>
-  <si>
     <t>mei</t>
   </si>
   <si>
@@ -319,36 +305,20 @@
     <t>button</t>
   </si>
   <si>
-    <t>NotEmpty</t>
-  </si>
-  <si>
-    <t>バリデーションのエラーメッセージ未定
-初期値：一般</t>
-  </si>
-  <si>
     <t>register</t>
   </si>
   <si>
     <t>ユーザー登録ボタン</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
     <t>戻るボタン</t>
-  </si>
-  <si>
-    <t>KK06002_Controller</t>
   </si>
   <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KK06002Form</t>
   </si>
   <si>
     <t>引数</t>
@@ -372,22 +342,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RegisterForm</t>
-  </si>
-  <si>
-    <t>1. ユーザー登録画面で使用するformオブジェクトを返す。</t>
-  </si>
-  <si>
     <t>registerInput</t>
   </si>
   <si>
-    <t>1. 戻り値（ユーザー登録画面のパス）を返し、ユーザー登録画面を表示する。</t>
-  </si>
-  <si>
     <t>registUser</t>
-  </si>
-  <si>
-    <t>KK06002Form,Model,BindingResult</t>
   </si>
   <si>
     <t>1. 入力された情報の入力チェックを行う。</t>
@@ -439,9 +397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-2-1. 重複チェックメソッドを呼び出し、社員番号の重複チェック処理を行う。</t>
-  </si>
-  <si>
     <t>1-2-1-1. 社員番号が重複していた場合</t>
   </si>
   <si>
@@ -452,41 +407,206 @@
     <t>1-2-1-2. 社員番号が重複していない場合</t>
   </si>
   <si>
-    <t>戻り値（ユーザ登録画面のパス）を返し、ユーザ登録画面を表示する。</t>
-  </si>
-  <si>
-    <t>登録完了メッセージも表示させる。</t>
-  </si>
-  <si>
-    <t>searchUser</t>
-  </si>
-  <si>
-    <t>registeringUser</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>1. 入力したユーザーIDとメールアドレスがBDと重複していないかチェックする。</t>
-  </si>
-  <si>
     <t>getoutFromKK06002</t>
   </si>
   <si>
     <t>なし</t>
   </si>
   <si>
-    <t>1. 「戻る」が押下された場合遷移先をメニュー画面(KK05001)へリダイレクトする。</t>
+    <t>使用テーブル</t>
+  </si>
+  <si>
+    <t>テーブル論理名：</t>
+  </si>
+  <si>
+    <t>ユーザ</t>
+  </si>
+  <si>
+    <t>テーブル物理名：</t>
+  </si>
+  <si>
+    <t>KK06002Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力項目</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK06002Form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK06002Form,Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>1. 「戻る」が押下された場合、メニュー画面(KK05001)へリダイレクトする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ユーザ登録画面で表示するヘッダ用情報をモデルに追加する。</t>
+    <rPh sb="6" eb="10">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK06002Form,Model,BindingResult,RedirectAttributes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自画面遷移(リダイレクト)し、登録完了メッセージを表示する。</t>
+    <rPh sb="0" eb="5">
+      <t>ジガメンセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-1. 「searchUser」を呼び出し、入力された内容とDBとの重複チェックを行う。</t>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getRadioItems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map&lt;String, String&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 「1.」で生成したMapを返す。</t>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ユーザ登録画面で使用するラジオボタン用の値を設定したMapを生成する。</t>
+    <rPh sb="6" eb="10">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>s</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ユーザ登録画面で使用するformオブジェクトを返す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 戻り値（ユーザ登録画面のパス）を返し、ユーザ登録画面を表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「registeringUser」を呼び出し、入力したユーザ情報をuserテーブルに登録する。</t>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty
+Size(min=1, max=20, message=)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty
+Size(min=1, max=50, message=)
+Email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty
+Size(min=8, max=20, message=)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty
+Size(min=1, max=20, message=)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーションのエラーメッセージ未定
+初期値：一般</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map&lt;String, String&gt;</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,9 +677,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Meiryo UI"/>
-      <charset val="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -594,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -948,11 +1069,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -978,41 +1110,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,25 +1128,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,74 +1233,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,6 +1250,113 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,14 +1637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:X10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="3.625" style="1"/>
     <col min="10" max="15" width="4.5" style="1" customWidth="1"/>
@@ -1463,13 +1651,13 @@
     <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1504,7 +1692,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1514,23 +1702,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1541,7 +1729,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="18.75" customHeight="1">
+    <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1551,21 +1739,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1576,7 +1764,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1">
+    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1586,21 +1774,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1611,7 +1799,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1646,7 +1834,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1681,7 +1869,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="18.75" customHeight="1">
+    <row r="9" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1691,25 +1879,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1720,7 +1908,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1730,21 +1918,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1755,7 +1943,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1765,25 +1953,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1794,7 +1982,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1804,21 +1992,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1829,7 +2017,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1864,7 +2052,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1899,7 +2087,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1932,7 +2120,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="24">
+    <row r="16" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1942,29 +2130,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="27" t="s">
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1975,7 +2163,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="24">
+    <row r="17" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1985,29 +2173,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10">
         <v>44140</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="26" t="s">
+      <c r="R17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="28">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10">
         <v>44140</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2018,7 +2206,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2053,7 +2241,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2088,7 +2276,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2123,7 +2311,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2158,7 +2346,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2193,7 +2381,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2228,7 +2416,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2263,7 +2451,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2298,7 +2486,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2335,12 +2523,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2348,6 +2530,12 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2356,14 +2544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:U2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
@@ -2372,7 +2560,7 @@
     <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -2380,41 +2568,41 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="59" t="str">
+      <c r="F1" s="17" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="29"/>
-      <c r="X1" s="30" t="str">
+      <c r="X1" s="50" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
       <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AC1" s="29"/>
-      <c r="AD1" s="31">
+      <c r="AD1" s="51">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
@@ -2422,7 +2610,7 @@
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
@@ -2430,41 +2618,41 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="59" t="str">
+      <c r="F2" s="17" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="29"/>
-      <c r="X2" s="30" t="str">
+      <c r="X2" s="50" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
       <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AC2" s="29"/>
-      <c r="AD2" s="31">
+      <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
@@ -2472,7 +2660,7 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2507,7 +2695,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="24">
+    <row r="4" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -2534,7 +2722,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="19.5" thickBot="1">
+    <row r="5" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2569,688 +2757,688 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" ht="25.5" customHeight="1">
+    <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="35" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="36"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="40"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="21" customHeight="1">
+    <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="37">
+      <c r="B7" s="41">
         <v>1</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44">
         <v>44140</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="46" t="s">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="48"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="32"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="19.5" customHeight="1">
+    <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="48"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="32"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="19.5" customHeight="1">
+    <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="48"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="32"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="19.5" customHeight="1">
+    <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="48"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="32"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="19.5" customHeight="1">
+    <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="48"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="32"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="19.5" customHeight="1">
+    <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="48"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="32"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="19.5" customHeight="1">
+    <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="48"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="32"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1">
+    <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="48"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="32"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="19.5" customHeight="1">
+    <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="48"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="32"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="19.5" customHeight="1">
+    <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="48"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="32"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="19.5" customHeight="1">
+    <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="55"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="35"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="19.5" customHeight="1">
+    <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="48"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="32"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="19.5" customHeight="1">
+    <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="48"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="32"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" customHeight="1">
+    <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="32"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="19.5" customHeight="1">
+    <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="32"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="19.5" customHeight="1">
+    <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="32"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" customHeight="1">
+    <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="32"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="58"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="28"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3285,7 +3473,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3322,6 +3510,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B24:D24"/>
@@ -3338,78 +3598,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3418,14 +3606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="3" style="1" customWidth="1"/>
@@ -3435,7 +3623,7 @@
     <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -3443,41 +3631,41 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="59" t="str">
+      <c r="F1" s="17" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="29"/>
-      <c r="X1" s="30" t="str">
+      <c r="X1" s="50" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
       <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AC1" s="29"/>
-      <c r="AD1" s="31">
+      <c r="AD1" s="51">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
@@ -3485,7 +3673,7 @@
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
@@ -3493,41 +3681,41 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="59" t="str">
+      <c r="F2" s="17" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="29"/>
-      <c r="X2" s="30" t="str">
+      <c r="X2" s="50" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
       <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AC2" s="29"/>
-      <c r="AD2" s="31">
+      <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
@@ -3535,7 +3723,7 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3570,7 +3758,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3605,7 +3793,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3640,7 +3828,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3675,7 +3863,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3710,7 +3898,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3745,7 +3933,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3780,7 +3968,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3815,7 +4003,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3850,7 +4038,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3885,7 +4073,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3920,7 +4108,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3955,7 +4143,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3990,7 +4178,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4025,7 +4213,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4060,7 +4248,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4095,7 +4283,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4130,7 +4318,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4165,7 +4353,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4200,7 +4388,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4235,7 +4423,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4270,7 +4458,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4305,7 +4493,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4340,7 +4528,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4397,74 +4585,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AU26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW26"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11:AK11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="3" style="1" customWidth="1"/>
     <col min="28" max="28" width="3.625" style="1"/>
     <col min="29" max="29" width="3.625" style="1" customWidth="1"/>
-    <col min="30" max="37" width="3.375" style="1" customWidth="1"/>
-    <col min="38" max="47" width="3" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="3.625" style="1"/>
+    <col min="30" max="33" width="3" style="1" customWidth="1"/>
+    <col min="34" max="37" width="3.375" style="1" customWidth="1"/>
+    <col min="38" max="49" width="3" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
-      <c r="A1" s="29"/>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="59" t="str">
+      <c r="F1" s="17" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="29"/>
-      <c r="X1" s="30" t="str">
+      <c r="X1" s="50" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
       <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AC1" s="29"/>
-      <c r="AD1" s="31">
+      <c r="AD1" s="51">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
-      <c r="AU1" s="7"/>
-    </row>
-    <row r="2" spans="1:47">
+      <c r="AW1" s="7"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
@@ -4472,50 +4664,50 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="59" t="str">
+      <c r="F2" s="17" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="29"/>
-      <c r="X2" s="30" t="str">
+      <c r="X2" s="50" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
       <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AC2" s="29"/>
-      <c r="AD2" s="31">
+      <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
-      <c r="AU2" s="7"/>
-    </row>
-    <row r="3" spans="1:47">
+      <c r="AW2" s="7"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4562,9 +4754,11 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
-      <c r="AU3" s="7"/>
-    </row>
-    <row r="4" spans="1:47">
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="7"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -4611,594 +4805,614 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
       <c r="AT4" s="6"/>
-      <c r="AU4" s="7"/>
-    </row>
-    <row r="5" spans="1:47">
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="7"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="70" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="69" t="s">
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69" t="s">
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69" t="s">
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69" t="s">
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="7"/>
-    </row>
-    <row r="6" spans="1:47" ht="37.5" customHeight="1">
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="7"/>
+    </row>
+    <row r="6" spans="1:49" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="52">
+      <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="66" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="64" t="s">
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64" t="s">
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="65" t="s">
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65" t="s">
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="91"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="91"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="65"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="7"/>
-    </row>
-    <row r="7" spans="1:47" ht="86.25" customHeight="1">
+      <c r="AO6" s="91"/>
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="7"/>
+    </row>
+    <row r="7" spans="1:49" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="52">
+      <c r="B7" s="23">
         <v>2</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="66" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="64" t="s">
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="65" t="s">
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="7"/>
+    </row>
+    <row r="8" spans="1:49" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="7"/>
-    </row>
-    <row r="8" spans="1:47" ht="28.5" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="52">
-        <v>3</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52" t="s">
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="7"/>
+    </row>
+    <row r="9" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="23">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65" t="s">
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="7"/>
-    </row>
-    <row r="9" spans="1:47" ht="32.25" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="52">
-        <v>4</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52" t="s">
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="7"/>
+    </row>
+    <row r="10" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="64" t="s">
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64" t="s">
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="65" t="s">
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="7"/>
+    </row>
+    <row r="11" spans="1:49" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="23">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="7"/>
-    </row>
-    <row r="10" spans="1:47" ht="32.25" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="52">
-        <v>5</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="7"/>
+    </row>
+    <row r="12" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="23">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64" t="s">
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="7"/>
-    </row>
-    <row r="11" spans="1:47" ht="76.5" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="52">
-        <v>6</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="64" t="s">
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="91"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="91"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="7"/>
+    </row>
+    <row r="13" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="23">
+        <v>8</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="7"/>
-    </row>
-    <row r="12" spans="1:47" ht="32.25" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="52">
-        <v>7</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="7"/>
-    </row>
-    <row r="13" spans="1:47" ht="32.25" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="52">
-        <v>8</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="7"/>
-    </row>
-    <row r="14" spans="1:47" ht="18.75" customHeight="1">
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="7"/>
+    </row>
+    <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5245,9 +5459,11 @@
       <c r="AR14" s="6"/>
       <c r="AS14" s="6"/>
       <c r="AT14" s="6"/>
-      <c r="AU14" s="7"/>
-    </row>
-    <row r="15" spans="1:47" ht="18.75" customHeight="1">
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="7"/>
+    </row>
+    <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5294,9 +5510,11 @@
       <c r="AR15" s="6"/>
       <c r="AS15" s="6"/>
       <c r="AT15" s="6"/>
-      <c r="AU15" s="7"/>
-    </row>
-    <row r="16" spans="1:47">
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="7"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5343,9 +5561,11 @@
       <c r="AR16" s="6"/>
       <c r="AS16" s="6"/>
       <c r="AT16" s="6"/>
-      <c r="AU16" s="7"/>
-    </row>
-    <row r="17" spans="1:47">
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="7"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5392,9 +5612,11 @@
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
-      <c r="AU17" s="7"/>
-    </row>
-    <row r="18" spans="1:47">
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="7"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5441,9 +5663,11 @@
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
-      <c r="AU18" s="7"/>
-    </row>
-    <row r="19" spans="1:47">
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="7"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5490,9 +5714,11 @@
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
       <c r="AT19" s="6"/>
-      <c r="AU19" s="7"/>
-    </row>
-    <row r="20" spans="1:47">
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="7"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -5539,9 +5765,11 @@
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
       <c r="AT20" s="6"/>
-      <c r="AU20" s="7"/>
-    </row>
-    <row r="21" spans="1:47">
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="7"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5588,9 +5816,11 @@
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
-      <c r="AU21" s="7"/>
-    </row>
-    <row r="22" spans="1:47">
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="7"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5637,9 +5867,11 @@
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
-      <c r="AU22" s="7"/>
-    </row>
-    <row r="23" spans="1:47">
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="7"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5686,9 +5918,11 @@
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
       <c r="AT23" s="6"/>
-      <c r="AU23" s="7"/>
-    </row>
-    <row r="24" spans="1:47">
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="7"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5735,9 +5969,11 @@
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="6"/>
-      <c r="AU24" s="7"/>
-    </row>
-    <row r="25" spans="1:47">
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="7"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -5784,9 +6020,11 @@
       <c r="AR25" s="6"/>
       <c r="AS25" s="6"/>
       <c r="AT25" s="6"/>
-      <c r="AU25" s="7"/>
-    </row>
-    <row r="26" spans="1:47">
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="7"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5833,10 +6071,81 @@
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="4"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
@@ -5850,82 +6159,13 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="U5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="AL8:AT8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AL9:AT9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="AL10:AT10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AK11"/>
-    <mergeCell ref="AL11:AT11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AK12"/>
-    <mergeCell ref="AL12:AT12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="AL13:AT13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:X13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U13" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"text,textarea,password,button,link"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:X13">
+      <formula1>"text,textarea,password,button,radio,link"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5934,23 +6174,2298 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AI52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="3.625" style="65"/>
+    <col min="24" max="27" width="2.875" style="65" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="65"/>
+    <col min="30" max="37" width="2.875" style="65" customWidth="1"/>
+    <col min="38" max="16384" width="3.625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63" t="str">
+        <f>表紙!O9</f>
+        <v>勤怠管理システム</v>
+      </c>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="62"/>
+      <c r="X1" s="64" t="str">
+        <f>表紙!M16</f>
+        <v>田中</v>
+      </c>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="83">
+        <f>表紙!M17</f>
+        <v>44140</v>
+      </c>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="87"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="str">
+        <f>表紙!O11</f>
+        <v>ユーザ登録</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="62"/>
+      <c r="X2" s="64" t="str">
+        <f>表紙!U16</f>
+        <v>田中</v>
+      </c>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="83">
+        <f>表紙!U17</f>
+        <v>44140</v>
+      </c>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="70"/>
+      <c r="U6" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="67"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="67"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="70"/>
+      <c r="U13" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="76"/>
+      <c r="U14" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="67"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="67"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="67"/>
+      <c r="AK20" s="67"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="67"/>
+      <c r="AK21" s="67"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" s="70"/>
+      <c r="U22" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="67"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23" s="76"/>
+      <c r="U23" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="67"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="67"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="67"/>
+      <c r="AK27" s="67"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="67"/>
+      <c r="AK28" s="67"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="67"/>
+      <c r="AK29" s="67"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="67"/>
+      <c r="AK30" s="67"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31" s="70"/>
+      <c r="U31" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="67"/>
+      <c r="AK31" s="67"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" s="76"/>
+      <c r="U32" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="67"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="67"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="67"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="68"/>
+      <c r="AI35" s="68"/>
+      <c r="AJ35" s="67"/>
+      <c r="AK35" s="67"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="67"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="67"/>
+      <c r="AK38" s="67"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A40" s="66"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="67"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="67"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="67"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="67"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="67"/>
+      <c r="AK42" s="67"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="67"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="67"/>
+      <c r="AF43" s="67"/>
+      <c r="AG43" s="67"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="67"/>
+      <c r="AK43" s="67"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="67"/>
+      <c r="Z44" s="67"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="67"/>
+      <c r="AD44" s="67"/>
+      <c r="AE44" s="67"/>
+      <c r="AF44" s="67"/>
+      <c r="AG44" s="67"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="67"/>
+      <c r="AK44" s="67"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="67"/>
+      <c r="AF45" s="67"/>
+      <c r="AG45" s="67"/>
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="67"/>
+      <c r="AK45" s="67"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="67"/>
+      <c r="AB46" s="67"/>
+      <c r="AC46" s="67"/>
+      <c r="AD46" s="67"/>
+      <c r="AE46" s="67"/>
+      <c r="AF46" s="67"/>
+      <c r="AG46" s="67"/>
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="67"/>
+      <c r="AK46" s="67"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
+      <c r="AA47" s="75"/>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="75"/>
+      <c r="AD47" s="75"/>
+      <c r="AE47" s="75"/>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="75"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="67"/>
+      <c r="AK47" s="67"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="67"/>
+      <c r="Z48" s="67"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="67"/>
+      <c r="AD48" s="67"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="67"/>
+      <c r="AG48" s="67"/>
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="67"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="T49" s="70"/>
+      <c r="U49" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="73"/>
+      <c r="AF49" s="73"/>
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="70"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" s="76"/>
+      <c r="U50" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="V50" s="75"/>
+      <c r="W50" s="75"/>
+      <c r="X50" s="75"/>
+      <c r="Y50" s="75"/>
+      <c r="Z50" s="75"/>
+      <c r="AA50" s="75"/>
+      <c r="AB50" s="75"/>
+      <c r="AC50" s="75"/>
+      <c r="AD50" s="75"/>
+      <c r="AE50" s="75"/>
+      <c r="AF50" s="75"/>
+      <c r="AG50" s="75"/>
+      <c r="AH50" s="76"/>
+      <c r="AI50" s="68"/>
+      <c r="AJ50" s="67"/>
+      <c r="AK50" s="67"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="67"/>
+      <c r="AE51" s="67"/>
+      <c r="AF51" s="67"/>
+      <c r="AG51" s="67"/>
+      <c r="AH51" s="68"/>
+      <c r="AI51" s="68"/>
+      <c r="AJ51" s="67"/>
+      <c r="AK51" s="67"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
+      <c r="X52" s="67"/>
+      <c r="Y52" s="67"/>
+      <c r="Z52" s="67"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="67"/>
+      <c r="AC52" s="67"/>
+      <c r="AD52" s="67"/>
+      <c r="AE52" s="67"/>
+      <c r="AF52" s="67"/>
+      <c r="AG52" s="67"/>
+      <c r="AH52" s="68"/>
+      <c r="AI52" s="68"/>
+      <c r="AJ52" s="67"/>
+      <c r="AK52" s="67"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
+      <c r="AE53" s="67"/>
+      <c r="AF53" s="67"/>
+      <c r="AG53" s="67"/>
+      <c r="AH53" s="68"/>
+      <c r="AI53" s="68"/>
+      <c r="AJ53" s="67"/>
+      <c r="AK53" s="67"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
+      <c r="W54" s="79"/>
+      <c r="X54" s="79"/>
+      <c r="Y54" s="79"/>
+      <c r="Z54" s="79"/>
+      <c r="AA54" s="79"/>
+      <c r="AB54" s="79"/>
+      <c r="AC54" s="79"/>
+      <c r="AD54" s="79"/>
+      <c r="AE54" s="79"/>
+      <c r="AF54" s="79"/>
+      <c r="AG54" s="79"/>
+      <c r="AH54" s="80"/>
+      <c r="AI54" s="68"/>
+      <c r="AJ54" s="67"/>
+      <c r="AK54" s="67"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="AJ55" s="81"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="82"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="82"/>
+      <c r="AB56" s="82"/>
+      <c r="AC56" s="82"/>
+      <c r="AD56" s="82"/>
+      <c r="AE56" s="82"/>
+      <c r="AF56" s="82"/>
+      <c r="AG56" s="82"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="23" width="3.625" style="1"/>
     <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
     <col min="28" max="29" width="3.625" style="1"/>
-    <col min="30" max="35" width="2.875" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -5958,51 +8473,49 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="59" t="str">
+      <c r="F1" s="17" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="29"/>
-      <c r="X1" s="30" t="str">
+      <c r="X1" s="50" t="str">
         <f>表紙!M16</f>
         <v>田中</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
       <c r="AB1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AC1" s="29"/>
-      <c r="AD1" s="31">
+      <c r="AD1" s="51">
         <f>表紙!M17</f>
         <v>44140</v>
       </c>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
@@ -6010,51 +8523,49 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="59" t="str">
+      <c r="F2" s="17" t="str">
         <f>表紙!O11</f>
         <v>ユーザ登録</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="29"/>
-      <c r="X2" s="30" t="str">
+      <c r="X2" s="50" t="str">
         <f>表紙!U16</f>
         <v>田中</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
       <c r="AB2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AC2" s="29"/>
-      <c r="AD2" s="31">
+      <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>44140</v>
       </c>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-    </row>
-    <row r="3" spans="1:35">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6088,2021 +8599,8 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-    </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-    </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-    </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-    </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-    </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-    </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-    </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-    </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-    </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-    </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-    </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-    </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-    </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-    </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-    </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-    </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-    </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T37" s="13"/>
-      <c r="U37" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-    </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-    </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-    </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-    </row>
-    <row r="43" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T45" s="13"/>
-      <c r="U45" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T46" s="4"/>
-      <c r="U46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-    </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="7"/>
-      <c r="AH49" s="6"/>
-      <c r="AI49" s="6"/>
-    </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-    </row>
-    <row r="51" spans="1:35">
-      <c r="AH51" s="19"/>
-    </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AG26"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="23" width="3.625" style="1"/>
-    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
-    <col min="28" max="29" width="3.625" style="1"/>
-    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="59" t="str">
-        <f>表紙!O9</f>
-        <v>勤怠管理システム</v>
-      </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="30" t="str">
-        <f>表紙!M16</f>
-        <v>田中</v>
-      </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="31">
-        <f>表紙!M17</f>
-        <v>44140</v>
-      </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="59" t="str">
-        <f>表紙!O11</f>
-        <v>ユーザ登録</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30" t="str">
-        <f>表紙!U16</f>
-        <v>田中</v>
-      </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="31">
-        <f>表紙!U17</f>
-        <v>44140</v>
-      </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8137,10 +8635,12 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -8172,15 +8672,19 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -8207,15 +8711,19 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -8242,7 +8750,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -8277,7 +8785,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8312,7 +8820,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8347,7 +8855,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8382,7 +8890,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8417,7 +8925,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8452,7 +8960,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8487,7 +8995,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8522,7 +9030,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8557,7 +9065,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -8592,7 +9100,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -8627,7 +9135,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -8662,7 +9170,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -8697,7 +9205,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -8732,7 +9240,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -8767,7 +9275,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -8802,7 +9310,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -8837,7 +9345,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -8872,7 +9380,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
